--- a/static/ipt/blueprint2.xlsx
+++ b/static/ipt/blueprint2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\HELLO\File Sorter\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F03CC7C-C3A0-4E25-BEB5-5FD6B0865F53}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>item</t>
   </si>
@@ -39,6 +40,9 @@
     <t>CNC</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
     <t>2489A</t>
   </si>
   <si>
@@ -72,14 +76,14 @@
     <t>2489E</t>
   </si>
   <si>
-    <t>Path</t>
+    <t>test file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,19 +417,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,19 +460,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,19 +480,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,19 +500,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -516,19 +520,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -536,16 +540,36 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/static/ipt/blueprint2.xlsx
+++ b/static/ipt/blueprint2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18412"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\HELLO\File Sorter\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Ibex Innovation\trial 2\static\ipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F03CC7C-C3A0-4E25-BEB5-5FD6B0865F53}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>item</t>
   </si>
@@ -77,13 +76,67 @@
   </si>
   <si>
     <t>test file</t>
+  </si>
+  <si>
+    <t>97195A419</t>
+  </si>
+  <si>
+    <t>2489 TR_1</t>
+  </si>
+  <si>
+    <t>2489 CABLE_2</t>
+  </si>
+  <si>
+    <t>2489 CABLE_1</t>
+  </si>
+  <si>
+    <t>2489 1W_08</t>
+  </si>
+  <si>
+    <t>2489 1W_06</t>
+  </si>
+  <si>
+    <t>2489 1W_05</t>
+  </si>
+  <si>
+    <t>2489 1W_04</t>
+  </si>
+  <si>
+    <t>2489 1W_3</t>
+  </si>
+  <si>
+    <t>2489 1W_03</t>
+  </si>
+  <si>
+    <t>2489 1W_2B_M</t>
+  </si>
+  <si>
+    <t>2489 1W_2B</t>
+  </si>
+  <si>
+    <t>2489 1W_2A_M</t>
+  </si>
+  <si>
+    <t>2489 1W_2A</t>
+  </si>
+  <si>
+    <t>2489 1W_02</t>
+  </si>
+  <si>
+    <t>2489 1W_1A_M</t>
+  </si>
+  <si>
+    <t>2489 1W_1A</t>
+  </si>
+  <si>
+    <t>2489 1W_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,19 +470,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -472,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -512,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -532,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -552,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -569,6 +622,286 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>10</v>
       </c>
     </row>
